--- a/Task1_KFC_Team/KFC-team_pizza_data.xlsx
+++ b/Task1_KFC_Team/KFC-team_pizza_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceuedu-my.sharepoint.com/personal/ticu_cosmin-catalin_student_ceu_edu/Documents/Courses/Fall_Term/Data_Analysis_1/Team Assignment 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Data_ExercisesANDhomework_DA1\Task1_KFC_Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="823" documentId="11_F25DC773A252ABDACC104895E91D6F985ADE58F0" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4FDDDAD1-2271-4F2F-87BD-BAAACAEC4530}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B93A81-0AAE-4F3A-B87F-09161F636CCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8352" yWindow="1140" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -325,6 +325,45 @@
   </si>
   <si>
     <t>delivery_site</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
 </sst>
 </file>
@@ -677,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,8 +796,8 @@
       <c r="H2">
         <v>32</v>
       </c>
-      <c r="I2">
-        <v>4.5</v>
+      <c r="I2" t="s">
+        <v>103</v>
       </c>
       <c r="J2">
         <v>21</v>
@@ -795,8 +834,8 @@
       <c r="H3">
         <v>32</v>
       </c>
-      <c r="I3">
-        <v>4.3</v>
+      <c r="I3" t="s">
+        <v>101</v>
       </c>
       <c r="J3">
         <v>7</v>
@@ -833,8 +872,8 @@
       <c r="H4">
         <v>32</v>
       </c>
-      <c r="I4">
-        <v>2.5</v>
+      <c r="I4" t="s">
+        <v>107</v>
       </c>
       <c r="J4">
         <v>18</v>
@@ -871,8 +910,8 @@
       <c r="H5">
         <v>32</v>
       </c>
-      <c r="I5">
-        <v>3.4</v>
+      <c r="I5" t="s">
+        <v>108</v>
       </c>
       <c r="J5">
         <v>71</v>
@@ -985,8 +1024,8 @@
       <c r="H8">
         <v>32</v>
       </c>
-      <c r="I8">
-        <v>3.7</v>
+      <c r="I8" t="s">
+        <v>97</v>
       </c>
       <c r="J8">
         <v>19</v>
@@ -1023,8 +1062,8 @@
       <c r="H9">
         <v>32</v>
       </c>
-      <c r="I9">
-        <v>4</v>
+      <c r="I9" t="s">
+        <v>109</v>
       </c>
       <c r="J9">
         <v>41</v>
@@ -1061,8 +1100,8 @@
       <c r="H10">
         <v>32</v>
       </c>
-      <c r="I10">
-        <v>4.4000000000000004</v>
+      <c r="I10" t="s">
+        <v>98</v>
       </c>
       <c r="J10">
         <v>18</v>
@@ -1099,8 +1138,8 @@
       <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11">
-        <v>4.0999999999999996</v>
+      <c r="I11" t="s">
+        <v>99</v>
       </c>
       <c r="J11">
         <v>40</v>
@@ -1137,8 +1176,8 @@
       <c r="H12">
         <v>32</v>
       </c>
-      <c r="I12">
-        <v>4.4000000000000004</v>
+      <c r="I12" t="s">
+        <v>98</v>
       </c>
       <c r="J12">
         <v>38</v>
@@ -1175,8 +1214,8 @@
       <c r="H13">
         <v>32</v>
       </c>
-      <c r="I13">
-        <v>3.9</v>
+      <c r="I13" t="s">
+        <v>100</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -1213,8 +1252,8 @@
       <c r="H14">
         <v>32</v>
       </c>
-      <c r="I14">
-        <v>4.3</v>
+      <c r="I14" t="s">
+        <v>101</v>
       </c>
       <c r="J14">
         <v>17</v>
@@ -1251,8 +1290,8 @@
       <c r="H15">
         <v>32</v>
       </c>
-      <c r="I15">
-        <v>4.7</v>
+      <c r="I15" t="s">
+        <v>102</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1289,8 +1328,8 @@
       <c r="H16">
         <v>32</v>
       </c>
-      <c r="I16">
-        <v>4.5</v>
+      <c r="I16" t="s">
+        <v>103</v>
       </c>
       <c r="J16">
         <v>20</v>
@@ -1327,8 +1366,8 @@
       <c r="H17">
         <v>32</v>
       </c>
-      <c r="I17">
-        <v>4.5999999999999996</v>
+      <c r="I17" t="s">
+        <v>104</v>
       </c>
       <c r="J17">
         <v>42</v>
@@ -1365,8 +1404,8 @@
       <c r="H18">
         <v>24</v>
       </c>
-      <c r="I18">
-        <v>4.4000000000000004</v>
+      <c r="I18" t="s">
+        <v>98</v>
       </c>
       <c r="J18">
         <v>18</v>
@@ -1403,8 +1442,8 @@
       <c r="H19">
         <v>31</v>
       </c>
-      <c r="I19">
-        <v>3.9</v>
+      <c r="I19" t="s">
+        <v>100</v>
       </c>
       <c r="J19">
         <v>6</v>
@@ -1441,8 +1480,8 @@
       <c r="H20">
         <v>32</v>
       </c>
-      <c r="I20">
-        <v>4.5</v>
+      <c r="I20" t="s">
+        <v>103</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -1479,8 +1518,8 @@
       <c r="H21">
         <v>28</v>
       </c>
-      <c r="I21">
-        <v>4.3</v>
+      <c r="I21" t="s">
+        <v>101</v>
       </c>
       <c r="J21">
         <v>17</v>
@@ -1517,8 +1556,8 @@
       <c r="H22">
         <v>32</v>
       </c>
-      <c r="I22">
-        <v>4.2</v>
+      <c r="I22" t="s">
+        <v>105</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -1555,8 +1594,8 @@
       <c r="H23">
         <v>32</v>
       </c>
-      <c r="I23">
-        <v>4.4000000000000004</v>
+      <c r="I23" t="s">
+        <v>98</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1593,8 +1632,8 @@
       <c r="H24">
         <v>32</v>
       </c>
-      <c r="I24">
-        <v>4.7</v>
+      <c r="I24" t="s">
+        <v>102</v>
       </c>
       <c r="J24">
         <v>15</v>
@@ -1631,8 +1670,8 @@
       <c r="H25">
         <v>30</v>
       </c>
-      <c r="I25">
-        <v>4.2</v>
+      <c r="I25" t="s">
+        <v>105</v>
       </c>
       <c r="J25">
         <v>7</v>
@@ -1669,8 +1708,8 @@
       <c r="H26">
         <v>32</v>
       </c>
-      <c r="I26">
-        <v>4.2</v>
+      <c r="I26" t="s">
+        <v>105</v>
       </c>
       <c r="J26">
         <v>26</v>
@@ -1707,8 +1746,8 @@
       <c r="H27">
         <v>32</v>
       </c>
-      <c r="I27">
-        <v>4.7</v>
+      <c r="I27" t="s">
+        <v>102</v>
       </c>
       <c r="J27">
         <v>41</v>
@@ -1745,8 +1784,8 @@
       <c r="H28">
         <v>32</v>
       </c>
-      <c r="I28">
-        <v>4.4000000000000004</v>
+      <c r="I28" t="s">
+        <v>98</v>
       </c>
       <c r="J28">
         <v>32</v>
@@ -1783,8 +1822,8 @@
       <c r="H29">
         <v>32</v>
       </c>
-      <c r="I29">
-        <v>4</v>
+      <c r="I29" t="s">
+        <v>109</v>
       </c>
       <c r="J29">
         <v>36</v>
@@ -1821,8 +1860,8 @@
       <c r="H30">
         <v>32</v>
       </c>
-      <c r="I30">
-        <v>4.0999999999999996</v>
+      <c r="I30" t="s">
+        <v>99</v>
       </c>
       <c r="J30">
         <v>57</v>
@@ -1859,8 +1898,8 @@
       <c r="H31">
         <v>32</v>
       </c>
-      <c r="I31">
-        <v>4.4000000000000004</v>
+      <c r="I31" t="s">
+        <v>98</v>
       </c>
       <c r="J31">
         <v>32</v>
@@ -1897,8 +1936,8 @@
       <c r="H32">
         <v>32</v>
       </c>
-      <c r="I32">
-        <v>4.7</v>
+      <c r="I32" t="s">
+        <v>102</v>
       </c>
       <c r="J32">
         <v>26</v>
@@ -1935,8 +1974,8 @@
       <c r="H33">
         <v>32</v>
       </c>
-      <c r="I33">
-        <v>4.8</v>
+      <c r="I33" t="s">
+        <v>106</v>
       </c>
       <c r="J33">
         <v>18</v>
@@ -1973,8 +2012,8 @@
       <c r="H34">
         <v>32</v>
       </c>
-      <c r="I34">
-        <v>4</v>
+      <c r="I34" t="s">
+        <v>109</v>
       </c>
       <c r="J34">
         <v>11</v>
@@ -2011,8 +2050,8 @@
       <c r="H35">
         <v>32</v>
       </c>
-      <c r="I35">
-        <v>3.9</v>
+      <c r="I35" t="s">
+        <v>100</v>
       </c>
       <c r="J35">
         <v>8</v>
@@ -2049,8 +2088,8 @@
       <c r="H36">
         <v>32</v>
       </c>
-      <c r="I36">
-        <v>4.4000000000000004</v>
+      <c r="I36" t="s">
+        <v>98</v>
       </c>
       <c r="J36">
         <v>6</v>
@@ -2087,8 +2126,8 @@
       <c r="H37">
         <v>32</v>
       </c>
-      <c r="I37">
-        <v>4.8</v>
+      <c r="I37" t="s">
+        <v>106</v>
       </c>
       <c r="J37">
         <v>24</v>
@@ -2125,8 +2164,8 @@
       <c r="H38">
         <v>32</v>
       </c>
-      <c r="I38">
-        <v>4.5</v>
+      <c r="I38" t="s">
+        <v>103</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -2163,8 +2202,8 @@
       <c r="H39">
         <v>32</v>
       </c>
-      <c r="I39">
-        <v>4.4000000000000004</v>
+      <c r="I39" t="s">
+        <v>98</v>
       </c>
       <c r="J39">
         <v>24</v>
@@ -2201,8 +2240,8 @@
       <c r="H40">
         <v>32</v>
       </c>
-      <c r="I40">
-        <v>4.5</v>
+      <c r="I40" t="s">
+        <v>103</v>
       </c>
       <c r="J40">
         <v>16</v>
@@ -2239,8 +2278,8 @@
       <c r="H41">
         <v>32</v>
       </c>
-      <c r="I41">
-        <v>4.5</v>
+      <c r="I41" t="s">
+        <v>103</v>
       </c>
       <c r="J41">
         <v>24</v>
